--- a/OBPIT/Задание 5.xlsx
+++ b/OBPIT/Задание 5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -445,21 +445,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="10.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="10.000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -476,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -489,7 +489,7 @@
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
         <color theme="1"/>
@@ -501,7 +501,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
         <color theme="1"/>
@@ -518,215 +518,6 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color theme="1"/>
@@ -776,8 +567,157 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
@@ -787,19 +727,6 @@
       <left/>
       <right style="medium">
         <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
       </right>
       <top style="medium">
         <color theme="1"/>
@@ -813,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
@@ -827,6 +754,78 @@
     <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="6" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
@@ -834,93 +833,15 @@
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -929,17 +850,53 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -947,97 +904,55 @@
     <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1547,7 +1462,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="100" workbookViewId="0">
       <selection activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -1995,37 +1910,37 @@
       <c r="A34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
@@ -2078,7 +1993,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2092,1132 +2007,1133 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="37" width="59.00390625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="37" width="20.140625"/>
-    <col bestFit="1" customWidth="1" min="3" max="4" style="37" width="27.00390625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="37" width="11.00390625"/>
-    <col customWidth="1" min="6" max="6" style="37" width="15.5546875"/>
-    <col customWidth="1" min="7" max="10" style="37" width="13.140625"/>
-    <col min="11" max="16384" style="37" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="35" width="59.00390625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="35" width="20.140625"/>
+    <col bestFit="1" customWidth="1" min="3" max="4" style="35" width="27.00390625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="35" width="11.00390625"/>
+    <col customWidth="1" min="6" max="6" style="35" width="15.5546875"/>
+    <col customWidth="1" min="7" max="10" style="35" width="13.140625"/>
+    <col min="11" max="16384" style="35" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="47">
         <v>110</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="47">
         <v>108022</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="48">
         <v>80723</v>
       </c>
     </row>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="50">
         <v>120</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="50">
         <v>27</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="51">
         <v>51</v>
       </c>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="50">
         <v>130</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="50">
         <v>140</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="50">
         <v>343</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="51">
         <v>1399</v>
       </c>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="50">
         <v>150</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="50">
+      <c r="C9" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="51">
         <v>1</v>
       </c>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="50">
         <v>160</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="50">
         <v>170</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="50">
         <v>180</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="53">
         <v>190</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="53">
         <v>108392</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="54">
         <v>82174</v>
       </c>
     </row>
     <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="47">
         <v>210</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="47">
         <v>25987</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="48">
         <v>16193</v>
       </c>
     </row>
     <row r="16" ht="14.4" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="50">
         <v>211</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="50">
         <v>12948</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="51">
         <v>10655</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="1">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="50">
         <v>213</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="50">
         <v>1900</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="51">
         <v>1846</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="1">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="50">
         <v>214</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="50">
         <v>11139</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="51">
         <v>3692</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="1">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="50">
         <v>215</v>
       </c>
-      <c r="C19" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="1">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="50">
         <v>216</v>
       </c>
-      <c r="C20" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="50" t="s">
+      <c r="C20" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="50">
         <v>220</v>
       </c>
-      <c r="C21" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="1">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="50">
         <v>230</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="50">
         <v>341</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="51">
         <v>216</v>
       </c>
     </row>
     <row r="23" ht="28.800000000000001" customHeight="1">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="50">
         <v>240</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="50">
         <v>178</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="51">
         <v>186</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="1">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="50">
         <v>250</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="50">
         <v>26251</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="51">
         <v>12234</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="50">
         <v>260</v>
       </c>
-      <c r="C25" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="50" t="s">
+      <c r="C25" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="1">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="50">
         <v>270</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="50">
         <v>1566</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="51">
         <v>707</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="1">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="50">
         <v>280</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="50">
         <v>39</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="51">
         <v>40</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="56">
         <v>290</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="56">
         <v>54362</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="57">
         <v>29576</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="1">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="53">
         <v>300</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="53">
         <v>162754</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="54">
         <v>111715</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="1">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" ht="14.4" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
     </row>
     <row r="32" ht="14.4" customHeight="1">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="47">
         <v>410</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="47">
         <v>91</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="48">
         <v>91</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="50">
         <v>420</v>
       </c>
-      <c r="C33" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="50" t="s">
+      <c r="C33" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="1">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="50">
         <v>430</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="1">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="50">
         <v>440</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="50">
         <v>10282</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="51">
         <v>1069</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="1">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="50">
         <v>450</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="50">
         <v>91488</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="51">
         <v>62851</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="50">
         <v>460</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="50">
         <v>8378</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="51">
         <v>6313</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="1">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="50">
         <v>470</v>
       </c>
-      <c r="C38" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="1">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="50">
         <v>480</v>
       </c>
-      <c r="C39" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="1">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="53">
         <v>490</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="53">
         <v>110239</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="54">
         <v>70324</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="1">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
     </row>
     <row r="42" ht="14.4" customHeight="1">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="47">
         <v>510</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="47">
         <v>1134</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="48" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="1">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="50">
         <v>520</v>
       </c>
-      <c r="C43" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="50" t="s">
+      <c r="C43" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="1">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="50">
         <v>530</v>
       </c>
-      <c r="C44" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="1">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="50">
         <v>540</v>
       </c>
-      <c r="C45" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="50" t="s">
+      <c r="C45" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="1">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="50">
         <v>550</v>
       </c>
-      <c r="C46" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="1">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="50">
         <v>560</v>
       </c>
-      <c r="C47" s="49">
+      <c r="C47" s="50">
         <v>11586</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" ht="14.4" customHeight="1">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="53">
         <v>590</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="53">
         <v>12720</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" ht="14.4" customHeight="1">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" ht="14.4" customHeight="1">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="47">
         <v>610</v>
       </c>
-      <c r="C50" s="49">
+      <c r="C50" s="47">
         <v>12272</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="48">
         <v>9519</v>
       </c>
     </row>
     <row r="51" ht="14.4" customHeight="1">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="50">
         <v>620</v>
       </c>
-      <c r="C51" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="50" t="s">
+      <c r="C51" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" ht="14.4" customHeight="1">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="56">
         <v>630</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="56">
         <v>27451</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="57">
         <v>31791</v>
       </c>
     </row>
     <row r="53" ht="14.4" customHeight="1">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="50" t="s">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" ht="14.4" customHeight="1">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="50">
         <v>631</v>
       </c>
-      <c r="C54" s="49">
+      <c r="C54" s="50">
         <v>16793</v>
       </c>
-      <c r="D54" s="50">
+      <c r="D54" s="51">
         <v>26221</v>
       </c>
     </row>
     <row r="55" ht="14.4" customHeight="1">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="49">
+      <c r="B55" s="50">
         <v>632</v>
       </c>
-      <c r="C55" s="49">
+      <c r="C55" s="50">
         <v>670</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="51">
         <v>660</v>
       </c>
     </row>
     <row r="56" ht="14.4" customHeight="1">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="49">
+      <c r="B56" s="50">
         <v>633</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56" s="50">
         <v>781</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="51">
         <v>589</v>
       </c>
     </row>
     <row r="57" ht="14.4" customHeight="1">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="50">
         <v>634</v>
       </c>
-      <c r="C57" s="49">
+      <c r="C57" s="50">
         <v>1333</v>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="51">
         <v>896</v>
       </c>
     </row>
     <row r="58" ht="14.4" customHeight="1">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="50">
         <v>635</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="50">
         <v>4471</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D58" s="51">
         <v>2836</v>
       </c>
     </row>
     <row r="59" ht="14.4" customHeight="1">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="50">
         <v>636</v>
       </c>
-      <c r="C59" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="50" t="s">
+      <c r="C59" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" ht="14.4" customHeight="1">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="50">
         <v>637</v>
       </c>
-      <c r="C60" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="50">
+      <c r="C60" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="51">
         <v>175</v>
       </c>
     </row>
     <row r="61" ht="14.4" customHeight="1">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="49">
+      <c r="B61" s="50">
         <v>638</v>
       </c>
-      <c r="C61" s="49">
+      <c r="C61" s="50">
         <v>3403</v>
       </c>
-      <c r="D61" s="50">
+      <c r="D61" s="51">
         <v>414</v>
       </c>
     </row>
     <row r="62" ht="14.4" customHeight="1">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="50">
         <v>640</v>
       </c>
-      <c r="C62" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="50" t="s">
+      <c r="C62" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63" ht="14.4" customHeight="1">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="50">
         <v>650</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="50">
         <v>72</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D63" s="51">
         <v>116</v>
       </c>
     </row>
     <row r="64" ht="14.4" customHeight="1">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="50">
         <v>660</v>
       </c>
-      <c r="C64" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="50" t="s">
+      <c r="C64" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" ht="14.4" customHeight="1">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="50">
         <v>670</v>
       </c>
-      <c r="C65" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="50" t="s">
+      <c r="C65" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="66" ht="14.4" customHeight="1">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="56">
         <v>690</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="56">
         <v>39795</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="57">
         <v>41426</v>
       </c>
     </row>
     <row r="67" ht="14.4" customHeight="1">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B67" s="55">
+      <c r="B67" s="53">
         <v>700</v>
       </c>
-      <c r="C67" s="55">
+      <c r="C67" s="53">
         <f>C40+C48+C66</f>
         <v>162754</v>
       </c>
-      <c r="D67" s="56">
+      <c r="D67" s="54">
         <f>D40+D66</f>
         <v>111750</v>
       </c>
     </row>
     <row r="68" ht="14.4" customHeight="1"/>
     <row r="69" ht="14.4" customHeight="1">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="70" ht="14.4" customHeight="1">
-      <c r="A70" s="57" t="s">
+      <c r="A70" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D70" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="59" t="s">
+      <c r="E70" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="71" ht="14.4" customHeight="1">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="62">
+      <c r="C71" s="60">
         <f>C28</f>
         <v>54362</v>
       </c>
-      <c r="D71" s="62">
+      <c r="D71" s="60">
         <f>D28</f>
         <v>29576</v>
       </c>
-      <c r="E71" s="63">
+      <c r="E71" s="61">
         <f t="shared" ref="E71:E80" si="3">D71-C71</f>
         <v>-24786</v>
       </c>
     </row>
     <row r="72" ht="14.4" customHeight="1">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="64">
+      <c r="C72" s="62">
         <f>C66</f>
         <v>39795</v>
       </c>
-      <c r="D72" s="64">
+      <c r="D72" s="62">
         <f>D66</f>
         <v>41426</v>
       </c>
-      <c r="E72" s="65">
+      <c r="E72" s="63">
         <f t="shared" si="3"/>
         <v>1631</v>
       </c>
     </row>
     <row r="73" ht="14.4" customHeight="1">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="64">
+      <c r="C73" s="62">
         <f>C71/C72</f>
         <v>1.3660510114335971</v>
       </c>
-      <c r="D73" s="64">
+      <c r="D73" s="62">
         <f>D71/D72</f>
         <v>0.71394776227489987</v>
       </c>
-      <c r="E73" s="65">
+      <c r="E73" s="63">
         <f t="shared" si="3"/>
         <v>-0.65210324915869722</v>
       </c>
     </row>
     <row r="74" ht="14.4" customHeight="1">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="64">
+      <c r="C74" s="62">
         <f>C40</f>
         <v>110239</v>
       </c>
-      <c r="D74" s="64">
+      <c r="D74" s="62">
         <f>D40</f>
         <v>70324</v>
       </c>
-      <c r="E74" s="65">
+      <c r="E74" s="63">
         <f t="shared" si="3"/>
         <v>-39915</v>
       </c>
     </row>
     <row r="75" ht="14.4" customHeight="1">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="62">
         <f>C13</f>
         <v>108392</v>
       </c>
-      <c r="D75" s="64">
+      <c r="D75" s="62">
         <f>D13</f>
         <v>82174</v>
       </c>
-      <c r="E75" s="65">
+      <c r="E75" s="63">
         <f t="shared" si="3"/>
         <v>-26218</v>
       </c>
     </row>
     <row r="76" ht="14.4" customHeight="1">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="64">
+      <c r="C76" s="62">
         <f>C74-C75+C78</f>
         <v>14567</v>
       </c>
-      <c r="D76" s="64">
+      <c r="D76" s="62">
         <f>D74-D75+D78</f>
         <v>-11850</v>
       </c>
-      <c r="E76" s="65">
+      <c r="E76" s="63">
         <f t="shared" si="3"/>
         <v>-26417</v>
       </c>
     </row>
     <row r="77" ht="28.800000000000001" customHeight="1">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="64">
+      <c r="C77" s="62">
         <f>C76/C71</f>
         <v>0.26796291527169713</v>
       </c>
-      <c r="D77" s="64">
+      <c r="D77" s="62">
         <f>D76/D71</f>
         <v>-0.40066269948606981</v>
       </c>
-      <c r="E77" s="65">
+      <c r="E77" s="63">
         <f t="shared" si="3"/>
         <v>-0.66862561475776694</v>
       </c>
-      <c r="G77" s="66" t="s">
+      <c r="G77" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="68"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="48"/>
     </row>
     <row r="78" ht="14.4" customHeight="1">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="64">
+      <c r="C78" s="62">
         <f>C48</f>
         <v>12720</v>
       </c>
-      <c r="D78" s="64"/>
-      <c r="E78" s="65">
+      <c r="D78" s="62"/>
+      <c r="E78" s="63">
         <f t="shared" si="3"/>
         <v>-12720</v>
       </c>
-      <c r="G78" s="69"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="50"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="51"/>
     </row>
     <row r="79" ht="14.4" customHeight="1">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="62">
         <f>C29</f>
         <v>162754</v>
       </c>
-      <c r="D79" s="64">
+      <c r="D79" s="62">
         <f>D29</f>
         <v>111715</v>
       </c>
-      <c r="E79" s="65">
+      <c r="E79" s="63">
         <f t="shared" si="3"/>
         <v>-51039</v>
       </c>
-      <c r="G79" s="70"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="72"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="68"/>
     </row>
     <row r="80" ht="28.800000000000001" customHeight="1">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="71" t="s">
+      <c r="B80" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="74">
+      <c r="C80" s="70">
         <f>(C72+C78)/C79</f>
         <v>0.32266488074025829</v>
       </c>
-      <c r="D80" s="74">
+      <c r="D80" s="70">
         <f>(D72+D78)/D79</f>
         <v>0.3708186009040863</v>
       </c>
-      <c r="E80" s="75">
+      <c r="E80" s="71">
         <f t="shared" si="3"/>
         <v>4.8153720163828018e-002</v>
       </c>
@@ -3249,7 +3165,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>